--- a/도서정보/도서정보.xlsx
+++ b/도서정보/도서정보.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\도서정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oraclexe\DBMS\도서정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="157">
   <si>
     <t>하워드 막스 투자와 마켓 사이클의 법칙</t>
   </si>
@@ -468,12 +468,48 @@
   </si>
   <si>
     <t>010-9915-1295</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가격 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -800,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -818,213 +854,213 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1">
-        <v>43402</v>
-      </c>
-      <c r="H1">
-        <v>18000</v>
-      </c>
-      <c r="I1">
-        <v>436</v>
+        <v>153</v>
+      </c>
+      <c r="G1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1">
-        <v>43433</v>
+        <v>43402</v>
       </c>
       <c r="H2">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="I2">
-        <v>236</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1">
-        <v>43475</v>
+        <v>43433</v>
       </c>
       <c r="H3">
-        <v>15800</v>
+        <v>14000</v>
       </c>
       <c r="I3">
-        <v>316</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1">
-        <v>43549</v>
+        <v>43475</v>
       </c>
       <c r="H4">
-        <v>15000</v>
+        <v>15800</v>
       </c>
       <c r="I4">
-        <v>264</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1">
-        <v>43565</v>
+        <v>43549</v>
       </c>
       <c r="H5">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="I5">
-        <v>388</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G6" s="1">
-        <v>43427</v>
+        <v>43565</v>
       </c>
       <c r="H6">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="I6">
-        <v>228</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1">
-        <v>43454</v>
+        <v>43427</v>
       </c>
       <c r="H7">
-        <v>14800</v>
+        <v>13500</v>
       </c>
       <c r="I7">
-        <v>272</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1033,114 +1069,114 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G8" s="1">
-        <v>43565</v>
+        <v>43454</v>
       </c>
       <c r="H8">
-        <v>14000</v>
+        <v>14800</v>
       </c>
       <c r="I8">
-        <v>440</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G9" s="1">
-        <v>43449</v>
+        <v>43565</v>
       </c>
       <c r="H9">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="I9">
-        <v>232</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G10" s="1">
-        <v>43544</v>
+        <v>43449</v>
       </c>
       <c r="H10">
-        <v>13800</v>
+        <v>13500</v>
       </c>
       <c r="I10">
-        <v>500</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1">
-        <v>43554</v>
+        <v>43544</v>
       </c>
       <c r="H11">
-        <v>13000</v>
+        <v>13800</v>
       </c>
       <c r="I11">
-        <v>232</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1149,143 +1185,143 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G12" s="1">
-        <v>43539</v>
+        <v>43554</v>
       </c>
       <c r="H12">
-        <v>13800</v>
+        <v>13000</v>
       </c>
       <c r="I12">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G13" s="1">
-        <v>43555</v>
+        <v>43539</v>
       </c>
       <c r="H13">
-        <v>22000</v>
+        <v>13800</v>
       </c>
       <c r="I13">
-        <v>536</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G14" s="1">
-        <v>43419</v>
+        <v>43555</v>
       </c>
       <c r="H14">
-        <v>14800</v>
+        <v>22000</v>
       </c>
       <c r="I14">
-        <v>232</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G15" s="1">
-        <v>43566</v>
+        <v>43419</v>
       </c>
       <c r="H15">
-        <v>13000</v>
+        <v>14800</v>
       </c>
       <c r="I15">
-        <v>132</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="G16" s="1">
-        <v>43404</v>
+        <v>43566</v>
       </c>
       <c r="H16">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="I16">
-        <v>240</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -1294,27 +1330,27 @@
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
-        <v>43570</v>
+        <v>43404</v>
       </c>
       <c r="H17">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="I17">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
@@ -1323,201 +1359,201 @@
         <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="G18" s="1">
-        <v>43516</v>
+        <v>43570</v>
       </c>
       <c r="H18">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="I18">
-        <v>416</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="G19" s="1">
-        <v>43511</v>
+        <v>43516</v>
       </c>
       <c r="H19">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="I19">
-        <v>252</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1">
-        <v>43522</v>
+        <v>43511</v>
       </c>
       <c r="H20">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="I20">
-        <v>360</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="G21" s="1">
-        <v>43483</v>
+        <v>43522</v>
       </c>
       <c r="H21">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="I21">
-        <v>280</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="G22" s="1">
-        <v>43493</v>
+        <v>43483</v>
       </c>
       <c r="H22">
-        <v>13800</v>
+        <v>15000</v>
       </c>
       <c r="I22">
-        <v>240</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G23" s="1">
-        <v>43523</v>
+        <v>43493</v>
       </c>
       <c r="H23">
-        <v>16800</v>
+        <v>13800</v>
       </c>
       <c r="I23">
-        <v>376</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="G24" s="1">
-        <v>43565</v>
+        <v>43523</v>
       </c>
       <c r="H24">
-        <v>25000</v>
+        <v>16800</v>
       </c>
       <c r="I24">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -1526,168 +1562,198 @@
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1">
-        <v>43403</v>
+        <v>43565</v>
       </c>
       <c r="H25">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="I25">
-        <v>464</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1">
-        <v>43428</v>
+        <v>43403</v>
       </c>
       <c r="H26">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="I26">
-        <v>376</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G27" s="1">
-        <v>43459</v>
+        <v>43428</v>
       </c>
       <c r="H27">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="I27">
-        <v>256</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="G28" s="1">
-        <v>43494</v>
+        <v>43459</v>
       </c>
       <c r="H28">
         <v>13500</v>
       </c>
       <c r="I28">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="G29" s="1">
-        <v>43565</v>
+        <v>43494</v>
       </c>
       <c r="H29">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="I29">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="1">
+        <v>43565</v>
+      </c>
+      <c r="H30">
+        <v>15000</v>
+      </c>
+      <c r="I30">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>119</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>87</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>146</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G31" s="1">
         <v>43495</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>18000</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>456</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>